--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4C3CB23A-2060-43F6-A6C4-784D3CA5AEC5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE1043-375F-4C9A-9D48-61AAE112FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18240" windowWidth="28110" xWindow="-120" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
   <si>
     <t>Result</t>
   </si>
@@ -162,9 +162,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -264,206 +261,73 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:24:46 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:25:29 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:26:12 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:26:54 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:27:44 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:28:34 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:37:31 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:43:04 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:43:53 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:44:42 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:45:30 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:46:18 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:47:07 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 20:38:57 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 20:39:44 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 20:40:32 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 21:07:54 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 21:08:39 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 21:09:26 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 21:52:23 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 21:53:08 EST 2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:18:13 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:18:54 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:19:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:20:21 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:21:02 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:21:42 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:22:23 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:23:09 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:23:57 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:24:46 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:25:29 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:26:16 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:26:59 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:27:41 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:28:25 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:33:55 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:34:42 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:35:30 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:36:18 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:37:05 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:37:52 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:09:04 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:09:48 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:17:01 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:23:28 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:24:13 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:24:56 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:25:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:28:34 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:31:31 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:34:25 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:35:09 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:42:23 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:48:51 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:50:41 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:52:28 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 11:59:01 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 12:00:53 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 12:02:44 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 12:04:36 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 12:06:27 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 12:08:18 EST 2021</t>
+    <t>Tue Oct 25 15:15:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:16:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:17:16 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:19:37 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:21:44 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:22:28 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:23:10 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:23:58 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:24:47 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:29:41 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:30:30 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 15:34:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 16:58:11 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 16:58:55 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 16:59:36 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:08:35 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:10:16 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:11:02 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:11:45 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:12:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 17:13:09 EDT 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,19 +370,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,10 +399,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -573,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -625,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,21 +600,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -767,7 +631,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -819,42 +683,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="20" max="16384" style="1" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="12.85546875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -918,10 +782,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -933,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -968,10 +832,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -983,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -1016,12 +880,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -1033,7 +897,10 @@
         <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -1044,6 +911,9 @@
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1063,12 +933,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1077,25 +947,25 @@
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>28</v>
@@ -1110,12 +980,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1124,25 +994,25 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
@@ -1157,12 +1027,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1171,25 +1041,25 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>28</v>
@@ -1204,12 +1074,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1218,25 +1088,25 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1251,12 +1121,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1265,25 +1135,25 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>32</v>
@@ -1298,12 +1168,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1312,25 +1182,25 @@
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>32</v>
@@ -1345,24 +1215,24 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1395,24 +1265,24 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>34</v>
@@ -1445,42 +1315,48 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>28</v>
@@ -1495,42 +1371,42 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>29</v>
@@ -1542,42 +1418,42 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>29</v>
@@ -1589,42 +1465,42 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>29</v>
@@ -1636,21 +1512,21 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>22</v>
@@ -1659,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -1683,39 +1559,39 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>28</v>
@@ -1730,39 +1606,39 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>28</v>
@@ -1777,21 +1653,21 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
@@ -1800,7 +1676,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -1824,39 +1700,39 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>32</v>
@@ -1871,39 +1747,39 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>32</v>
@@ -1919,7 +1795,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE1043-375F-4C9A-9D48-61AAE112FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9FBE9E0D-DD6A-460C-8C51-F1C3A1203F6A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
   <si>
     <t>Result</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Oct 25 15:15:40 EDT 2022</t>
-  </si>
-  <si>
     <t>Tue Oct 25 15:16:27 EDT 2022</t>
   </si>
   <si>
@@ -322,12 +319,82 @@
   </si>
   <si>
     <t>Tue Oct 25 17:13:09 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:19:19 EDT 2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:28:59 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:29:53 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:30:48 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:31:36 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:32:24 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:33:12 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:33:58 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:34:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:35:44 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:36:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:37:30 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:38:25 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:39:14 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:40:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:40:55 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:41:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:42:39 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:43:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:44:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:45:19 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:46:13 EDT 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,19 +437,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,10 +466,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -437,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -489,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -600,21 +667,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -631,7 +698,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -683,42 +750,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="12.85546875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="20" max="16384" style="1" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -785,7 +852,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -835,7 +902,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -880,12 +947,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -933,12 +1000,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -980,12 +1047,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1027,12 +1094,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1074,12 +1141,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1121,12 +1188,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1168,12 +1235,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1215,12 +1282,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1265,12 +1332,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1315,12 +1382,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1371,12 +1438,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1418,12 +1485,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1465,12 +1532,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1512,12 +1579,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1559,12 +1626,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1606,12 +1673,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1653,12 +1720,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1700,12 +1767,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1747,12 +1814,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -1795,7 +1862,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9FBE9E0D-DD6A-460C-8C51-F1C3A1203F6A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{40FE7794-2CDA-4520-BCC6-DF3A55EBADC1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
+    <workbookView windowHeight="14730" windowWidth="23250" xWindow="-25305" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="1200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -159,9 +159,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -261,133 +258,136 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Oct 25 15:16:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:17:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:19:37 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:21:44 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:22:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:23:10 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:23:58 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:24:47 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:29:41 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:30:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 15:34:23 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 16:58:11 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 16:58:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 16:59:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:08:35 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:10:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:11:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:11:45 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:12:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 17:13:09 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:19:19 EDT 2022</t>
+    <t>Wed Nov 02 15:28:59 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:29:53 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:30:48 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:31:36 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:32:24 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:33:12 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:33:58 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:34:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:35:44 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:36:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:37:30 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:38:25 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:39:14 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:40:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:40:55 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:41:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:42:39 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:43:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:44:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:45:19 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 15:46:13 EDT 2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Wed Nov 02 15:28:59 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:29:53 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:30:48 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:31:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:32:24 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:33:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:33:58 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:34:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:35:44 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:36:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:37:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:38:25 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:39:14 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:40:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:40:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:41:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:42:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:43:33 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:44:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:45:19 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:46:13 EDT 2022</t>
+    <t>Wed Jan 04 18:42:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:43:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:44:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:45:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:46:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:47:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:47:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:48:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:49:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:50:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:51:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:52:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:53:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:54:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:55:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:55:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:56:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:57:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:58:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 18:59:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:00:28 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -760,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +855,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
@@ -864,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -899,7 +905,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
@@ -914,7 +920,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -949,7 +955,7 @@
     </row>
     <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -964,10 +970,10 @@
         <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -979,7 +985,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
@@ -1002,7 +1008,7 @@
     </row>
     <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>100</v>
@@ -1014,25 +1020,25 @@
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>28</v>
@@ -1049,7 +1055,7 @@
     </row>
     <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
@@ -1061,25 +1067,25 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
@@ -1096,7 +1102,7 @@
     </row>
     <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>102</v>
@@ -1108,25 +1114,25 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>28</v>
@@ -1143,7 +1149,7 @@
     </row>
     <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
@@ -1155,25 +1161,25 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
@@ -1202,25 +1208,25 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>32</v>
@@ -1237,7 +1243,7 @@
     </row>
     <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>105</v>
@@ -1249,25 +1255,25 @@
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>32</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>106</v>
@@ -1293,13 +1299,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -1343,13 +1349,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>34</v>
@@ -1384,7 +1390,7 @@
     </row>
     <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>108</v>
@@ -1393,37 +1399,37 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>28</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -1449,31 +1455,31 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>29</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>110</v>
@@ -1496,31 +1502,31 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>29</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>111</v>
@@ -1543,31 +1549,31 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>29</v>
@@ -1581,7 +1587,7 @@
     </row>
     <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>112</v>
@@ -1590,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>22</v>
@@ -1602,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -1637,28 +1643,28 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>28</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>114</v>
@@ -1684,28 +1690,28 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>28</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>115</v>
@@ -1731,10 +1737,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
@@ -1743,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -1778,28 +1784,28 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>32</v>
@@ -1816,7 +1822,7 @@
     </row>
     <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
@@ -1825,28 +1831,28 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>32</v>
@@ -1862,7 +1868,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="160">
   <si>
     <t>Result</t>
   </si>
@@ -388,6 +388,132 @@
   </si>
   <si>
     <t>Wed Jan 04 19:00:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:07:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:08:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:09:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:09:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:10:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:11:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:12:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:13:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:13:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:14:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:15:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:16:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:17:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:18:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:18:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:19:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:20:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:21:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:22:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:23:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:24:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:46:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:47:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:48:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:49:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:49:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:50:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:51:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:52:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:53:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:54:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:54:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:55:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:56:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:57:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:58:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:59:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:59:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:00:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:01:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:02:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:03:23 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -858,7 +984,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -908,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -958,7 +1084,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -1011,7 +1137,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1058,7 +1184,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1105,7 +1231,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1152,7 +1278,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1199,7 +1325,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1246,7 +1372,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1293,7 +1419,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1343,7 +1469,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1393,7 +1519,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1449,7 +1575,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1496,7 +1622,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1543,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1590,7 +1716,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1637,7 +1763,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1684,7 +1810,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1731,7 +1857,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1778,7 +1904,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1825,7 +1951,7 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="182">
   <si>
     <t>Result</t>
   </si>
@@ -514,6 +514,72 @@
   </si>
   <si>
     <t>Wed Feb 08 17:03:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:49:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:50:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:50:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:51:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:52:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:52:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:53:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:54:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:55:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:55:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:56:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:01:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:02:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:03:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:04:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:04:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:05:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:06:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:07:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:08:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:09:02 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1050,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1034,7 +1100,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1084,7 +1150,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -1137,7 +1203,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1184,7 +1250,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1231,7 +1297,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1278,7 +1344,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1325,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1372,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1419,7 +1485,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1466,10 +1532,10 @@
     </row>
     <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1519,7 +1585,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1575,7 +1641,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1622,7 +1688,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1669,7 +1735,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1716,7 +1782,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1763,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1810,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1857,7 +1923,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1904,7 +1970,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1951,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="203">
   <si>
     <t>Result</t>
   </si>
@@ -580,6 +580,69 @@
   </si>
   <si>
     <t>Wed Feb 15 13:09:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:16:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:17:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:18:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:18:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:19:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:20:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:20:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:21:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:22:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:23:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:23:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:24:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:25:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:26:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:26:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:27:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:28:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:29:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:30:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:30:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:31:40 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1113,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1100,7 +1163,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1150,7 +1213,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -1203,7 +1266,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1250,7 +1313,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1297,7 +1360,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1344,7 +1407,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1391,7 +1454,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1438,7 +1501,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1485,7 +1548,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1532,10 +1595,10 @@
     </row>
     <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1585,7 +1648,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1641,7 +1704,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1688,7 +1751,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1735,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1782,7 +1845,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1829,7 +1892,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1876,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1923,7 +1986,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1970,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -2017,7 +2080,7 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{40FE7794-2CDA-4520-BCC6-DF3A55EBADC1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE16FEF-8EA7-4FEF-8790-08A7285DAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14730" windowWidth="23250" xWindow="-25305" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="1200"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="97">
   <si>
     <t>Result</t>
   </si>
@@ -258,398 +258,79 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Nov 02 15:28:59 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:29:53 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:30:48 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:31:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:32:24 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:33:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:33:58 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:34:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:35:44 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:36:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:37:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:38:25 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:39:14 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:40:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:40:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:41:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:42:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:43:33 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:44:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:45:19 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 15:46:13 EDT 2022</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:42:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:43:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:44:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:45:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:46:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:47:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:47:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:48:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:49:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:50:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:51:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:52:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:53:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:54:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:55:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:55:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:56:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:57:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:58:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 18:59:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:00:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:07:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:08:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:09:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:09:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:10:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:11:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:12:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:13:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:13:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:14:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:15:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:16:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:17:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:18:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:18:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:19:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:20:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:21:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:22:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:23:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:24:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:46:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:47:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:48:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:49:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:49:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:50:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:51:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:52:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:53:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:54:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:54:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:55:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:56:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:57:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:58:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:59:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:59:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:00:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:01:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:02:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:03:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:49:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:50:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:50:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:51:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:52:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:52:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:53:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:54:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:55:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:55:59 EST 2023</t>
+    <t>Thu Feb 16 12:16:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:17:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:18:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:20:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:21:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:22:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:25:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:26:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:26:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:10:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:10:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:11:34 EDT 2023</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Wed Feb 15 12:56:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:01:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:02:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:03:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:04:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:04:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:05:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:06:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:07:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:08:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 13:09:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:16:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:17:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:18:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:18:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:19:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:20:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:20:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:21:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:22:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:23:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:23:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:24:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:25:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:26:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:26:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:27:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:28:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:29:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:30:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:30:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:31:40 EST 2023</t>
+    <t>Tue Jun 13 13:18:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:18:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:19:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:20:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:21:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:22:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:22:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:23:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:24:32 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,19 +379,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -727,10 +408,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -765,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -817,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -928,21 +609,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -959,7 +640,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1011,42 +692,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="20" max="16384" style="1" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="12.85546875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1113,7 +794,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1125,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -1163,7 +844,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1175,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -1208,12 +889,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -1225,7 +906,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>64</v>
@@ -1261,12 +942,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1308,12 +989,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1355,12 +1036,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1402,12 +1083,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1449,12 +1130,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1496,12 +1177,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1543,12 +1224,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1593,12 +1274,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1643,12 +1324,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1699,12 +1380,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1713,7 +1394,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
@@ -1746,12 +1427,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1793,12 +1474,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1840,12 +1521,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1854,7 +1535,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>22</v>
@@ -1887,12 +1568,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1934,12 +1615,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1981,12 +1662,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1995,7 +1676,7 @@
         <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
@@ -2028,12 +1709,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -2075,12 +1756,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -2124,8 +1805,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE16FEF-8EA7-4FEF-8790-08A7285DAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3DE16FEF-8EA7-4FEF-8790-08A7285DAC93}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="111">
   <si>
     <t>Result</t>
   </si>
@@ -325,12 +325,55 @@
   </si>
   <si>
     <t>Tue Jun 13 13:24:32 EDT 2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:27:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:28:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:29:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:30:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:30:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:31:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:32:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:33:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:33:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:34:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:35:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:36:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:36:56 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,19 +422,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,10 +451,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -446,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -498,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -609,21 +652,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -640,7 +683,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -692,15 +735,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C16"/>
@@ -708,26 +751,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="12.85546875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="20" max="16384" style="1" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -794,7 +837,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -844,7 +887,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -889,12 +932,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -942,12 +985,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -989,12 +1032,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1036,12 +1079,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1083,12 +1126,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1130,12 +1173,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1177,12 +1220,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1224,12 +1267,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1274,12 +1317,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1324,12 +1367,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1380,12 +1423,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1427,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1474,7 +1517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1521,7 +1564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1568,7 +1611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1615,7 +1658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1662,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1709,7 +1752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1756,7 +1799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1805,8 +1848,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3DE16FEF-8EA7-4FEF-8790-08A7285DAC93}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{71DF7C7D-9F12-4CEC-ACE3-3A545A838963}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
   <si>
     <t>Result</t>
   </si>
@@ -240,133 +240,103 @@
     <t>Light Car Wash</t>
   </si>
   <si>
-    <t>Withholding Tax</t>
-  </si>
-  <si>
-    <t>O'Briens Garage</t>
-  </si>
-  <si>
-    <t>A1 Tree Trimming</t>
-  </si>
-  <si>
-    <t>Lux &amp; Sons Corporation</t>
-  </si>
-  <si>
-    <t>O'Briens</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>Thu Feb 16 12:16:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:17:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:18:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:20:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:21:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:22:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:25:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:26:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:26:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:10:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:10:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:11:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:18:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:18:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:19:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:20:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:21:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:22:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:22:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:23:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:24:32 EDT 2023</t>
+    <t>Mon Jul 17 19:24:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:24:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:25:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:26:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:26:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:27:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:28:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:28:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:29:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:30:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:31:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:32:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:32:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:33:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:34:14 EDT 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Jul 11 12:27:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:28:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:29:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:30:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:30:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:31:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:32:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:33:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:33:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:34:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:35:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:36:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:36:56 EDT 2023</t>
+    <t>Mon Jul 17 21:16:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:17:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:17:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:18:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:19:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:19:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:20:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:21:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:22:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:22:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:23:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:24:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:25:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:25:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:26:37 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -743,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,10 +804,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -849,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -884,10 +854,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -899,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -934,10 +904,10 @@
     </row>
     <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -949,7 +919,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>64</v>
@@ -987,10 +957,10 @@
     </row>
     <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1034,10 +1004,10 @@
     </row>
     <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1081,10 +1051,10 @@
     </row>
     <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1128,10 +1098,10 @@
     </row>
     <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1175,10 +1145,10 @@
     </row>
     <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1222,10 +1192,10 @@
     </row>
     <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1269,10 +1239,10 @@
     </row>
     <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1319,10 +1289,10 @@
     </row>
     <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1369,10 +1339,10 @@
     </row>
     <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1425,10 +1395,10 @@
     </row>
     <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1437,7 +1407,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
@@ -1472,10 +1442,10 @@
     </row>
     <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1519,10 +1489,10 @@
     </row>
     <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1561,288 +1531,6 @@
         <v>33</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="60" r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="60" r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="30" r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="30" r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{71DF7C7D-9F12-4CEC-ACE3-3A545A838963}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8026F1-D874-4377-AC31-7CC93AD30F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}" yWindow="-120"/>
+    <workbookView xWindow="3660" yWindow="3480" windowWidth="18915" windowHeight="10740" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>Result</t>
   </si>
@@ -244,54 +244,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:24:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:24:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:25:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:26:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:26:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:27:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:28:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:28:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:29:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:30:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:31:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:32:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:32:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:33:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:34:14 EDT 2023</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Mon Jul 17 21:16:23 EDT 2023</t>
@@ -343,7 +295,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,19 +343,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,10 +372,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -459,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -511,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -622,21 +573,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -653,7 +604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -705,15 +656,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
-  <dimension ref="A1:T16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59299B-2CF9-4E8C-A692-AEB8ED0299FB}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -721,26 +672,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="20" max="16384" style="1" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="12.85546875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -807,7 +758,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -857,7 +808,7 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -902,12 +853,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -955,12 +906,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1002,12 +953,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1049,12 +1000,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1096,12 +1047,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1143,12 +1094,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1190,12 +1141,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1237,12 +1188,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -1287,12 +1238,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1337,12 +1288,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -1393,12 +1344,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1440,12 +1391,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1487,12 +1438,12 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1536,8 +1487,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/PaymentsHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsHardCoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8026F1-D874-4377-AC31-7CC93AD30F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CAA0F-8569-46F6-8A06-73C670B67B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3480" windowWidth="18915" windowHeight="10740" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
+    <workbookView xWindow="3480" yWindow="2460" windowWidth="18810" windowHeight="14565" xr2:uid="{DA3D39C3-C047-412A-8A87-CEDE42C5CB05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
   <si>
     <t>Result</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Mon Jul 17 21:26:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
   </si>
 </sst>
 </file>
@@ -667,14 +670,14 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1196,7 +1199,7 @@
         <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>59</v>
@@ -1246,7 +1249,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -1296,7 +1299,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>59</v>
